--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-12.35432053867263</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69301013679044</v>
+        <v>-10.69217222940857</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.046938260639354</v>
+        <v>-3.996807833058384</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.755879733923736</v>
+        <v>-6.823187262833049</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.18438571432123</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05036454285535</v>
+        <v>-11.05052165048945</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.095720181027625</v>
+        <v>-4.03545631104716</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.767728267995498</v>
+        <v>-6.82554387734456</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.803304594071918</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88507740283244</v>
+        <v>-11.88296954207492</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.842999459273787</v>
+        <v>-3.79038149415289</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.600893052883383</v>
+        <v>-6.658957415986438</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.346274255097745</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73411324211838</v>
+        <v>-12.73906213259255</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.940890607621372</v>
+        <v>-3.873583078712059</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.940140804118188</v>
+        <v>-7.006505687222898</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.832420552770036</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44468488655022</v>
+        <v>-13.45679526667881</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.694048329843469</v>
+        <v>-3.628455892606421</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.506405903274646</v>
+        <v>-6.563161036093528</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.315375260364085</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13500273848591</v>
+        <v>-14.14788556448217</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.753055338751129</v>
+        <v>-3.679934827380088</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.679014823939962</v>
+        <v>-6.734945141679816</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.821583880617927</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.7470678963366</v>
+        <v>-14.76733478113559</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.571779313604589</v>
+        <v>-3.506605830058477</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.375692351702853</v>
+        <v>-6.414183722057527</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.393766759837378</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.6593788352566</v>
+        <v>-15.68116442718523</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.417316324677905</v>
+        <v>-3.349275626809455</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.173128242135667</v>
+        <v>-6.189742374441818</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.040611861226806</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31093037847794</v>
+        <v>-16.33295163185772</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.409369296852978</v>
+        <v>-3.336890308321182</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.736526126969786</v>
+        <v>-5.757735657573383</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.218767061036887</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.83866801372508</v>
+        <v>-16.8760465383382</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.259881383006149</v>
+        <v>-3.19329393075313</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.502789244336451</v>
+        <v>-5.526433943268608</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.376057423941982</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.46550128918124</v>
+        <v>-17.49776072338325</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.374818709653662</v>
+        <v>-3.319687022387154</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.905701680936692</v>
+        <v>-4.930590148638813</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.442375386431703</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.36210146469116</v>
+        <v>-18.39040702343497</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.153886099199535</v>
+        <v>-3.097366627831803</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.261023596707258</v>
+        <v>-4.283084126995567</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.413132458168796</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.09754848452228</v>
+        <v>-19.11426735525117</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.037430065422382</v>
+        <v>-2.980413086546664</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.692595084228038</v>
+        <v>-3.732107654204367</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.292446031271228</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.85335403527229</v>
+        <v>-19.88270697824344</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.965252199855946</v>
+        <v>-2.905171622115265</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.09590028991353</v>
+        <v>-3.134313106451155</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.091916765248511</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.70571531948002</v>
+        <v>-20.74713936567124</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.962568277773392</v>
+        <v>-2.893571841797495</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.480967917740498</v>
+        <v>-2.538115819644633</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.810334711547553</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.41781876334434</v>
+        <v>-21.46255516215452</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.883307476369582</v>
+        <v>-2.814363409605053</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.060901381063718</v>
+        <v>-2.117316114008715</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.449943272409208</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.32298130491276</v>
+        <v>-22.37269277880279</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.789998634016601</v>
+        <v>-2.717035230279661</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.839680739947072</v>
+        <v>-1.884901553962394</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>7.012150501467372</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.16499966987553</v>
+        <v>-23.21636077392362</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.799752399633686</v>
+        <v>-2.733086393563617</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.360659563573999</v>
+        <v>-1.422978925100615</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.488215318442181</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.96691631123409</v>
+        <v>-24.01417952449272</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.575821651828804</v>
+        <v>-2.512009767778231</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.129920818291419</v>
+        <v>-1.181700876030445</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.871945885211677</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.41483017605522</v>
+        <v>-24.46832532546652</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.414315003973271</v>
+        <v>-2.353265595822303</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7392595937971546</v>
+        <v>-0.7914716975299581</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.156608465466034</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.07766728432613</v>
+        <v>-25.13087440307491</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.199967821848532</v>
+        <v>-2.147808087327095</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6024843060096423</v>
+        <v>-0.6310517108102885</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.329509090998357</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.64803345762593</v>
+        <v>-25.69934219246265</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.19425957780954</v>
+        <v>-2.143330519755225</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.220765124356277</v>
+        <v>-0.2641922928822824</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>8.387830711717758</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.08662560282375</v>
+        <v>-26.1374106455468</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.135867907135441</v>
+        <v>-2.093226276779939</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2662085075199082</v>
+        <v>-0.3025134633000146</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>8.333152988629063</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.36233640836766</v>
+        <v>-26.41365823550723</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.786656913438082</v>
+        <v>-1.746149328445781</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2490706831000888</v>
+        <v>-0.2805707637372817</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.166223021916291</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.27812671648968</v>
+        <v>-26.33290491157946</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.682821859600352</v>
+        <v>-1.650444594672764</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4086658547407296</v>
+        <v>-0.4398779047154045</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>7.899535380577971</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.19176988694565</v>
+        <v>-26.26388229099788</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.755641248006033</v>
+        <v>-1.725345659230278</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3728584064686088</v>
+        <v>-0.3910043382072411</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>7.54830692671871</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.36378965398309</v>
+        <v>-26.4240666162664</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.472952245047483</v>
+        <v>-1.442198425672269</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7088330819929831</v>
+        <v>-0.724517660797371</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>7.124737602723903</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.27388481036896</v>
+        <v>-26.34792178293892</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.380180187111012</v>
+        <v>-1.357098457201049</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7836163158249224</v>
+        <v>-0.7945091117892386</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.651117916712507</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.08957137096314</v>
+        <v>-26.15673488454119</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.45980757299439</v>
+        <v>-1.436869858415686</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9267020935821466</v>
+        <v>-0.9343087215331894</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.145192180989624</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.75359669543877</v>
+        <v>-25.81794536390585</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.371866574806516</v>
+        <v>-1.350552305780186</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.411470790902738</v>
+        <v>-1.414612943584752</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.619503928049743</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.76699012124585</v>
+        <v>-25.83919417141797</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.202439083731739</v>
+        <v>-1.185091782466452</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.70130819121287</v>
+        <v>-1.713326925221574</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.095770717367704</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.41783149675986</v>
+        <v>-25.48653990207324</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.171475787511057</v>
+        <v>-1.157859792555662</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.201028298378712</v>
+        <v>-2.216752154091625</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.583403896759284</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.87409506744013</v>
+        <v>-24.92920057010096</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.190656011174186</v>
+        <v>-1.180967707071309</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.307743658841621</v>
+        <v>-2.318296054932052</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.089640740593382</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.45701357581127</v>
+        <v>-24.5197780756345</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.357661426223244</v>
+        <v>-1.349243075496014</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522051564057835</v>
+        <v>-2.522837102228339</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.625853148792755</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.80979558483054</v>
+        <v>-23.86715296358014</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.357124641806733</v>
+        <v>-1.348182598965834</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.71854084510646</v>
+        <v>-2.707360018479626</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.189972488172946</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.05171197338607</v>
+        <v>-23.1044346769297</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.336124588048604</v>
+        <v>-1.331136420665907</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.84536598273426</v>
+        <v>-2.847225089737785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.781909323632469</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.67173406801066</v>
+        <v>-22.71717745117429</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.413028774940903</v>
+        <v>-1.405631623835328</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.154239591376262</v>
+        <v>-3.163260188034211</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.39985932014302</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.02697742996417</v>
+        <v>-22.09040963723234</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.327287283630439</v>
+        <v>-1.312977396624432</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.382228953062079</v>
+        <v>-3.393226487449129</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.032645675295949</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.53919750298999</v>
+        <v>-21.60225003347574</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.49606015956313</v>
+        <v>-1.480179196216116</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.613386652035595</v>
+        <v>-3.624593663268112</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.673996630684141</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.09642891318565</v>
+        <v>-21.12552001009997</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.41202066762209</v>
+        <v>-1.387695168942163</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.617432173613688</v>
+        <v>-3.625915985855127</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.316212509736068</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.26091742273522</v>
+        <v>-20.31591818697331</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.139085430280627</v>
+        <v>-1.111617778918686</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.725626964297712</v>
+        <v>-3.739766651366776</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9462001226973334</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.44779377014414</v>
+        <v>-19.48205632668094</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.146678965928828</v>
+        <v>-1.120520544851059</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.865897896943966</v>
+        <v>-3.877510769564577</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5612494573655479</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.02178332797721</v>
+        <v>-19.05872980659656</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.168556203977352</v>
+        <v>-1.138456999744224</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.090326152256834</v>
+        <v>-4.105382300524819</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1580240021464977</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.53837623015216</v>
+        <v>-18.56436445129299</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.157257546624943</v>
+        <v>-1.128506849584512</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.204896894424778</v>
+        <v>-4.214807767675965</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2697457648511227</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08911385813833</v>
+        <v>-18.10225853019142</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.120939498541994</v>
+        <v>-1.093013616580593</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.346437780446679</v>
+        <v>-4.34431682738632</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.7195468908763096</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.32346289565135</v>
+        <v>-17.34609948726469</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.215321909727998</v>
+        <v>-1.182368583475373</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.649236560570119</v>
+        <v>-4.656581342464328</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.189339702198892</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.47624688646041</v>
+        <v>-16.5040418453934</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.140185183719332</v>
+        <v>-1.109352810527067</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.603793177406488</v>
+        <v>-4.601030701506884</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.678965004552562</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85258194829195</v>
+        <v>-15.86026713006004</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.091560370965161</v>
+        <v>-1.048395048495991</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.830420939596767</v>
+        <v>-4.835474568493673</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.181541364529284</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.96378478527569</v>
+        <v>-14.98572748483843</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.047242925845919</v>
+        <v>-1.010741585523186</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954378862902229</v>
+        <v>-4.955007293438632</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.695351964749525</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.17209323243652</v>
+        <v>-14.1878694573608</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.047465494994228</v>
+        <v>-1.012168646532934</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.136374964705063</v>
+        <v>-5.140904901488301</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.219248107841716</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.44856020819137</v>
+        <v>-13.48546740990219</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9947035145420718</v>
+        <v>-0.9567751132095914</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.034320464053809</v>
+        <v>-5.043930214339635</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.744061448926371</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.75189258937744</v>
+        <v>-12.7843222235164</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9922683462135108</v>
+        <v>-0.9490113776244479</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.115191618707151</v>
+        <v>-5.122798246658193</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.271021663070001</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.38897395460479</v>
+        <v>-12.41695220577756</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.189137304044546</v>
+        <v>-1.146953904288504</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.284645294387611</v>
+        <v>-5.294464521518905</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.796328539519625</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71530951188378</v>
+        <v>-11.73345544362241</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.278937409235945</v>
+        <v>-1.23460687181386</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.765394654735792</v>
+        <v>-5.771875344642447</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.30994919065245</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29182588416531</v>
+        <v>-11.31122867697675</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.294189942046556</v>
+        <v>-1.246782713456666</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.898752851481614</v>
+        <v>-5.904395634006398</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.81143386718261</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51897415511538</v>
+        <v>-10.53571921044994</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.283140038448139</v>
+        <v>-1.235300763864472</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.35352708299181</v>
+        <v>-6.362154910564508</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.291990061230004</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.0420870241055</v>
+        <v>-10.07352164322849</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.486987193693814</v>
+        <v>-1.434722720749643</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.194756726430199</v>
+        <v>-6.210532951354478</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.740101063146084</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.47901326348855</v>
+        <v>-9.500091871063729</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.47542669028457</v>
+        <v>-1.425021324343924</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.418268520544146</v>
+        <v>-6.436493006099829</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.151460971747404</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.188324863493706</v>
+        <v>-9.213723931006655</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.552658184747912</v>
+        <v>-1.505552079123381</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.297675319069008</v>
+        <v>-6.321477125635266</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.512174864662869</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.55015365377661</v>
+        <v>-8.59020300816945</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.639093568108987</v>
+        <v>-1.583857142419745</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.714612795366616</v>
+        <v>-6.722965684579637</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.813092514679215</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.975859789624296</v>
+        <v>-8.017951543260446</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.552618907839387</v>
+        <v>-1.504046464296583</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.578492122721189</v>
+        <v>-6.592566348276045</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.051712849232741</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.514905991172805</v>
+        <v>-7.553266438499063</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.546661910046401</v>
+        <v>-1.488374977795037</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.64221236065187</v>
+        <v>-6.661300938195107</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.216268931419684</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.091579471088434</v>
+        <v>-7.143215513496202</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.687325611777906</v>
+        <v>-1.631670232397729</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.820058202453877</v>
+        <v>-6.835860611983841</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.307206003505762</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.662845829930431</v>
+        <v>-6.712884611391508</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.570254239767191</v>
+        <v>-1.517308967075251</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005013164698942</v>
+        <v>-7.005995087412071</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.327486317733955</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.424932502690584</v>
+        <v>-6.469537978472346</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.727335689262221</v>
+        <v>-1.678082445971647</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.033541292591063</v>
+        <v>-7.039982705589192</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.273915934213125</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.286717061590482</v>
+        <v>-6.338863703809078</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.718079431153121</v>
+        <v>-1.669284418462007</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.085465365661348</v>
+        <v>-7.097471007367211</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.155687213448211</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.01113717907499</v>
+        <v>-6.063977713344197</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.64184295170575</v>
+        <v>-1.606022411130787</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.04664668773563</v>
+        <v>-7.049945948051746</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.980019522184896</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.913547153692765</v>
+        <v>-5.970485578751431</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.925959015674047</v>
+        <v>-1.883814892826531</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083894289320341</v>
+        <v>-7.082349397585017</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.750453532291093</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.807538777583308</v>
+        <v>-5.871926722958917</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.872424589354229</v>
+        <v>-1.834574741838799</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821995863274453</v>
+        <v>-6.824339385483122</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.482011109017784</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.542799321820765</v>
+        <v>-5.611363711802885</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.885032476990811</v>
+        <v>-1.849473782472683</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.730768697073305</v>
+        <v>-6.726985021552046</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.181441499495361</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.626616244613496</v>
+        <v>-5.704751107972917</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.965995277764045</v>
+        <v>-1.930646060091385</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.55103756366209</v>
+        <v>-6.541886043975723</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.853871652896534</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.698204956552054</v>
+        <v>-5.776706404391043</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.053190014689941</v>
+        <v>-2.018534689067892</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.383508456499364</v>
+        <v>-6.376242228422205</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.515113481718919</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.902484157791505</v>
+        <v>-5.977319760834812</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.914254496933544</v>
+        <v>-1.879926478882538</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.28950572209577</v>
+        <v>-6.269238837296778</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.166962872501792</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.050819948988262</v>
+        <v>-6.131913672789914</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.166621726510656</v>
+        <v>-2.141733258808534</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.143906222192935</v>
+        <v>-6.125393705974734</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.815954265678179</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.528924664162415</v>
+        <v>-6.611353802853922</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.154144761902491</v>
+        <v>-2.120628466627672</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.912722338613736</v>
+        <v>-5.88711379425532</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.471176033900802</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.999710782048043</v>
+        <v>-7.070553232724622</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.204471574026086</v>
+        <v>-2.17370466234803</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.96501299616359</v>
+        <v>-5.944589003730496</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.129956861331832</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.483955787254964</v>
+        <v>-7.555701606827624</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.158151006572059</v>
+        <v>-2.122893435019291</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.594815041010944</v>
+        <v>-5.571759495706663</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.797592952894773</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.884357685063473</v>
+        <v>-7.949779922363578</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.185042596608964</v>
+        <v>-2.16088729786598</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.433635700726454</v>
+        <v>-5.410462324696598</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.476159449103927</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.258967746273781</v>
+        <v>-8.330098227612879</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.453225328018881</v>
+        <v>-2.425954061199566</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.038392170237585</v>
+        <v>-5.018151470044277</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.160849819317754</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.170048008726656</v>
+        <v>-9.234121738834064</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.379960801316582</v>
+        <v>-2.349743766357878</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.037528078250031</v>
+        <v>-5.010269903733557</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.856934257718981</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.91090214963141</v>
+        <v>-9.965549421692774</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.470258414015967</v>
+        <v>-2.439138010161184</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.867432879730326</v>
+        <v>-4.840580566601946</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.562066122377372</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.6685537150821</v>
+        <v>-10.71859249654317</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.525782870367727</v>
+        <v>-2.510438691437224</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.542940153798146</v>
+        <v>-4.513835964580989</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.272345983084226</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.80631410893662</v>
+        <v>-11.85975688913654</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.611812392340709</v>
+        <v>-2.589882785080818</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.438921807720632</v>
+        <v>-4.407762126957324</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.993188778239277</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.62210859130741</v>
+        <v>-12.67295909554467</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.754557770224048</v>
+        <v>-2.732863824415308</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.077181480203741</v>
+        <v>-4.041858447136764</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.721432453955245</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.65163491756938</v>
+        <v>-13.70747358918934</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.849791181094764</v>
+        <v>-2.829367188661671</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.75291132341987</v>
+        <v>-3.728376347894475</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.458272303951383</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.65023722451919</v>
+        <v>-14.70480594276351</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.882587399713287</v>
+        <v>-2.864690221728648</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.307170780870464</v>
+        <v>-3.276233669255465</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.207786659039949</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.02216654700083</v>
+        <v>-16.06471653123644</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.794410740074262</v>
+        <v>-2.766851442592429</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.056361535331518</v>
+        <v>-3.026511084852382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.968257468610935</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.44096631365584</v>
+        <v>-17.49126694117375</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.02717879229731</v>
+        <v>-3.009622014186555</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.783373928778687</v>
+        <v>-2.759899429783472</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.74275728210126</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.91265898379143</v>
+        <v>-18.96124451963707</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.227098256690467</v>
+        <v>-3.206137479840864</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.653930330582542</v>
+        <v>-2.636609213922938</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.532228739772032</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.54598922481096</v>
+        <v>-20.58445441055995</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.441746561780566</v>
+        <v>-3.413506464550963</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.708865633306424</v>
+        <v>-2.699910498162684</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.333192351672391</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.02032654012057</v>
+        <v>-22.06203861697432</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.443553299572724</v>
+        <v>-3.430028950737221</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.604101025966932</v>
+        <v>-2.587146493786897</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.146440928973579</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.0116003408329</v>
+        <v>-24.05411104815999</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.668819462267463</v>
+        <v>-3.634321244279515</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.572967529809308</v>
+        <v>-2.55956101169938</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.9685363270305773</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.18386213602925</v>
+        <v>-26.22272009086349</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.471531550745493</v>
+        <v>-3.44079082367312</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.73303402435225</v>
+        <v>-2.715464153938654</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.7936885642341419</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.35761645374955</v>
+        <v>-28.39841206940437</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.97887137816522</v>
+        <v>-3.940563300050329</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.946582576003645</v>
+        <v>-2.939316347926487</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.6189705951893107</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.39555122178979</v>
+        <v>-30.44582566470202</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.959953000558925</v>
+        <v>-3.921540184021301</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.280226821622191</v>
+        <v>-3.272685655185357</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4400532460412237</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.6586997833134</v>
+        <v>-32.71537636231523</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.109742037371113</v>
+        <v>-4.079891586891979</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.364449605803015</v>
+        <v>-3.356869162457656</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2503126538551686</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.16490694709366</v>
+        <v>-35.214840990132</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.393164209288799</v>
+        <v>-4.355628577041571</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784267388725803</v>
+        <v>-3.782997435350156</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05158011457643355</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.56712194940208</v>
+        <v>-37.61434588575219</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.243571557019237</v>
+        <v>-4.214676844647548</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.182221025902909</v>
+        <v>-4.172401798771615</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1630539955640367</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.1912645771806</v>
+        <v>-40.23581768375099</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.365382342658656</v>
+        <v>-4.333266923787903</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.433004086836172</v>
+        <v>-4.423067028979302</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.3835595317233388</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.63320162631082</v>
+        <v>-42.67522791843277</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.520578500544477</v>
+        <v>-4.488384527856673</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.947387573184748</v>
+        <v>-4.931886286620144</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.6190297746958768</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.99672887372195</v>
+        <v>-45.04303634887313</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.608152914252783</v>
+        <v>-4.57839410989354</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.145474115180063</v>
+        <v>-5.140669240037149</v>
       </c>
     </row>
   </sheetData>
